--- a/reports/resnet18_23_no_MMTM/prediction/3/probability_val_3.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/3/probability_val_3.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9266835451126099</v>
+        <v>0.9885634183883667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07331647723913193</v>
+        <v>0.011436577886343</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2910884916782379</v>
+        <v>0.5606900453567505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7089114785194397</v>
+        <v>0.4393100142478943</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4083597660064697</v>
+        <v>0.7013645172119141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5916402339935303</v>
+        <v>0.2986354231834412</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3935551047325134</v>
+        <v>0.6387907266616821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6064449548721313</v>
+        <v>0.3612093031406403</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.795706033706665</v>
+        <v>0.9061916470527649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204293966293335</v>
+        <v>0.09380833804607391</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7650684118270874</v>
+        <v>0.9251187443733215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2349316328763962</v>
+        <v>0.07488124072551727</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4498759806156158</v>
+        <v>0.5671384930610657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5501240491867065</v>
+        <v>0.4328615367412567</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6395198106765747</v>
+        <v>0.5606487989425659</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3604801297187805</v>
+        <v>0.4393511414527893</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07222359627485275</v>
+        <v>0.04180548340082169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9277764558792114</v>
+        <v>0.9581944942474365</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08790747076272964</v>
+        <v>0.03956713527441025</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9120925068855286</v>
+        <v>0.9604328870773315</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4541125893592834</v>
+        <v>0.1909050345420837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5458874702453613</v>
+        <v>0.809095025062561</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04822076112031937</v>
+        <v>0.01148269977420568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9517792463302612</v>
+        <v>0.9885172843933105</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02213040366768837</v>
+        <v>0.02633878774940968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9778695702552795</v>
+        <v>0.9736611843109131</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0937620997428894</v>
+        <v>0.1118058934807777</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9062379002571106</v>
+        <v>0.8881940841674805</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2331805378198624</v>
+        <v>0.05191297084093094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7668194770812988</v>
+        <v>0.9480869770050049</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.184820681810379</v>
+        <v>0.1632515639066696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8151792883872986</v>
+        <v>0.836748480796814</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2505059242248535</v>
+        <v>0.1979297697544098</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7494940757751465</v>
+        <v>0.8020702600479126</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3815172910690308</v>
+        <v>0.1308265030384064</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6184827089309692</v>
+        <v>0.869173526763916</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5260041952133179</v>
+        <v>0.7700633406639099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4739958047866821</v>
+        <v>0.2299366891384125</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2419175207614899</v>
+        <v>0.3832902908325195</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7580825090408325</v>
+        <v>0.6167097091674805</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
